--- a/organograma/organograma.xlsx
+++ b/organograma/organograma.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Artist front\GAME_DEV\EPTA_PROJECT\2020\EPTA_SPACE_PROGRAM\organograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621A325-3894-4108-896F-2838A9B2A6B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D5E4B-961B-405F-8582-5521A6A39522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planioilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Data inicio:</t>
   </si>
@@ -112,6 +111,45 @@
   </si>
   <si>
     <t>Responsável</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Fazer política de privacidade demo.</t>
+  </si>
+  <si>
+    <t>Testar 2 serviços. (Português e inglês)</t>
+  </si>
+  <si>
+    <t>Recolher informações para a política de privacidade.</t>
+  </si>
+  <si>
+    <t>Criar a política de privacidade</t>
+  </si>
+  <si>
+    <t>Conversar  com pessoas da equipe.</t>
+  </si>
+  <si>
+    <t>Por as informações. (precisamos de pelo menos uma em inglês)</t>
+  </si>
+  <si>
+    <t>Olavo</t>
+  </si>
+  <si>
+    <t>Script de spawn</t>
+  </si>
+  <si>
+    <t>Script de colisão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script de movimentação </t>
+  </si>
+  <si>
+    <t>Olavo + Felipe</t>
+  </si>
+  <si>
+    <t>Ageitar background</t>
   </si>
 </sst>
 </file>
@@ -697,18 +735,6 @@
     <xf numFmtId="1" fontId="9" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,6 +775,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,13 +928,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>323851</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -1204,7 +1242,7 @@
   <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,21 +1260,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1253,34 +1291,34 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="57">
+      <c r="AD1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="71">
         <v>44018</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="58" t="s">
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="59"/>
+      <c r="AJ1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1297,21 +1335,21 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="70" t="s">
+      <c r="AD2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="57">
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="71">
         <f ca="1">TODAY()</f>
         <v>44023</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="60">
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="56">
         <f ca="1">INT((AF2 - AF1)/7)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="61"/>
+      <c r="AJ2" s="57"/>
       <c r="AK2" s="22">
         <v>0</v>
       </c>
@@ -1393,22 +1431,22 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="21">
         <f xml:space="preserve"> $AF$1+AK2 * 7</f>
         <v>44018</v>
@@ -2193,857 +2231,947 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19" t="str">
+      <c r="A11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="46" t="str">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="X11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Y11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AA11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ11" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="K11" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19" t="str">
+      <c r="A12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="47" t="str">
+        <v>4</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="47">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="43"/>
-      <c r="K12" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="X12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Y12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AA12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI12" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ12" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="K12" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="str">
+      <c r="A13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
         <f t="shared" ref="F13:F30" si="8">IF(D13="", "", D13+E13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="47" t="str">
+        <v>4</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
         <f t="shared" ref="I13:I30" si="9">IF(H13="","",H13/G13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J13" s="43"/>
-      <c r="K13" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="X13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Y13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AA13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI13" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ13" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="K13" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="42"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19" t="str">
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="47" t="str">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J14" s="43"/>
-      <c r="K14" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="S14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="T14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="W14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="X14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Y14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Z14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AA14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AG14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AH14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AI14" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AJ14" s="39" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="K14" s="38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19" t="str">
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="47" t="str">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="43"/>
-      <c r="K15" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L15" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M15" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N15" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O15" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P15" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q15" s="34" t="str">
+      <c r="K15" s="38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="34">
         <f t="shared" ref="Q15:AF31" si="10">IF(  $D15="",  "", IF(             AND(    Q$6 &gt;= $D15,   Q$6 &lt; $D15 + $E15     ),   1, 0  )                )</f>
-        <v/>
-      </c>
-      <c r="R15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF15" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG15" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="34">
         <f t="shared" ref="AG15:AJ31" si="11">IF(  $D15="",  "", IF(             AND(    AG$6 &gt;= $D15,   AG$6 &lt; $D15 + $E15     ),   1, 0  )                )</f>
-        <v/>
-      </c>
-      <c r="AH15" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AI15" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ15" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="39">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19" t="str">
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="47" t="str">
+        <v>3</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="43"/>
-      <c r="K16" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Y16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z16" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AA16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF16" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG16" s="34" t="str">
+      <c r="K16" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AH16" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AI16" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="39">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19" t="str">
+      <c r="D17" s="24">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="47" t="str">
+        <v>4</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J17" s="43"/>
-      <c r="K17" s="38" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Y17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z17" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AA17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF17" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG17" s="34" t="str">
+      <c r="K17" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AH17" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AI17" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="34">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ17" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="39">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,7 +3924,7 @@
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="38" t="str">
-        <f t="shared" ref="K24:Z39" si="12">IF(  $D24="",  "", IF(             AND(    K$6 &gt;= $D24,   K$6 &lt; $D24 + $E24     ),   1, 0  )                )</f>
+        <f t="shared" ref="K24:Z37" si="12">IF(  $D24="",  "", IF(             AND(    K$6 &gt;= $D24,   K$6 &lt; $D24 + $E24     ),   1, 0  )                )</f>
         <v/>
       </c>
       <c r="L24" s="34" t="str">
@@ -6968,7 +7096,7 @@
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="38" t="str">
-        <f t="shared" ref="K39:Z52" si="21">IF(  $D50="",  "", IF(             AND(    K$6 &gt;= $D50,   K$6 &lt; $D50 + $E50     ),   1, 0  )                )</f>
+        <f t="shared" ref="K50:Z52" si="21">IF(  $D50="",  "", IF(             AND(    K$6 &gt;= $D50,   K$6 &lt; $D50 + $E50     ),   1, 0  )                )</f>
         <v/>
       </c>
       <c r="L50" s="34" t="str">
@@ -7318,16 +7446,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:AJ52">
     <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
@@ -7414,16 +7542,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5945FCDF-6A0A-4655-878A-4782F8F53E51}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/organograma/organograma.xlsx
+++ b/organograma/organograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Artist front\GAME_DEV\EPTA_PROJECT\2020\EPTA_SPACE_PROGRAM\organograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D5E4B-961B-405F-8582-5521A6A39522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE9742-9B33-4183-BB95-C5EF2240B91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,6 +735,18 @@
     <xf numFmtId="1" fontId="9" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,18 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="K14:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,21 +1260,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1291,34 +1291,34 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="3"/>
-      <c r="AD1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71">
+      <c r="AD1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="57">
         <v>44018</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="54" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="55"/>
+      <c r="AJ1" s="59"/>
     </row>
     <row r="2" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1335,21 +1335,21 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="71">
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="57">
         <f ca="1">TODAY()</f>
         <v>44023</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="56">
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="60">
         <f ca="1">INT((AF2 - AF1)/7)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="57"/>
+      <c r="AJ2" s="61"/>
       <c r="AK2" s="22">
         <v>0</v>
       </c>
@@ -1431,22 +1431,22 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="68" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="21">
         <f xml:space="preserve"> $AF$1+AK2 * 7</f>
         <v>44018</v>
@@ -2241,10 +2241,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="7"/>
@@ -2263,7 +2263,7 @@
       <c r="J11" s="43"/>
       <c r="K11" s="38">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" si="4"/>
@@ -7446,16 +7446,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:AJ52">
     <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
